--- a/mercury/src/test/resources/testdata/manifest-import/missing-patient-header.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-import/missing-patient-header.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="81">
   <si>
     <t>Sex</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>SAMPLE_TYPE</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>DNA:Genomic</t>
   </si>
 </sst>
 </file>
@@ -740,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G1" sqref="G1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -755,7 +761,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>77</v>
       </c>
@@ -772,8 +778,11 @@
       <c r="F1" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -792,8 +801,11 @@
       <c r="F2" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,11 @@
       <c r="F3" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -832,8 +847,11 @@
       <c r="F4" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -852,8 +870,11 @@
       <c r="F5" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -872,8 +893,11 @@
       <c r="F6" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -892,8 +916,11 @@
       <c r="F7" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -912,8 +939,11 @@
       <c r="F8" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -932,8 +962,11 @@
       <c r="F9" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -952,8 +985,11 @@
       <c r="F10" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -972,8 +1008,11 @@
       <c r="F11" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -992,8 +1031,11 @@
       <c r="F12" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1012,8 +1054,11 @@
       <c r="F13" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1032,8 +1077,11 @@
       <c r="F14" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1052,8 +1100,11 @@
       <c r="F15" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1072,8 +1123,11 @@
       <c r="F16" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1092,8 +1146,11 @@
       <c r="F17" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1112,8 +1169,11 @@
       <c r="F18" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1132,8 +1192,11 @@
       <c r="F19" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1152,8 +1215,11 @@
       <c r="F20" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -1172,8 +1238,11 @@
       <c r="F21" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -1192,8 +1261,11 @@
       <c r="F22" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>67</v>
       </c>
@@ -1212,8 +1284,11 @@
       <c r="F23" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
@@ -1231,6 +1306,9 @@
       </c>
       <c r="F24" s="5" t="s">
         <v>75</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
